--- a/biology/Botanique/Poales/Poales.xlsx
+++ b/biology/Botanique/Poales/Poales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Poales sont un vaste ordre de plantes monocotylédones, réintroduit par les systèmes de classification modernes tels que la classification phylogénétique APG III (2009)[1], dans lesquels il est largement circonscrit par rapport aux systèmes de classification traditionnels (par exemple, cette circonscription est proche de celle des Commelinidae par Cronquist, 1981)[2]. L'ordre est actuellement constitué de 14 familles comptant plus de 18 000 espèces, parmi lesquelles la famille des Poaceae (graminées, céréales, bambous), qui est probablement la famille d'angiospermes la plus importante économiquement, et est également accompagnée d'autres telles que les Typhaceae (la famille des quenouilles), les Bromeliaceae (la famille des ananas et des œillets), les Cyperaceae (le papyrus est produit à partir de l'un d'eux) et les juncaceae (la famille des roseaux et des plantes apparentées).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Poales sont un vaste ordre de plantes monocotylédones, réintroduit par les systèmes de classification modernes tels que la classification phylogénétique APG III (2009), dans lesquels il est largement circonscrit par rapport aux systèmes de classification traditionnels (par exemple, cette circonscription est proche de celle des Commelinidae par Cronquist, 1981). L'ordre est actuellement constitué de 14 familles comptant plus de 18 000 espèces, parmi lesquelles la famille des Poaceae (graminées, céréales, bambous), qui est probablement la famille d'angiospermes la plus importante économiquement, et est également accompagnée d'autres telles que les Typhaceae (la famille des quenouilles), les Bromeliaceae (la famille des ananas et des œillets), les Cyperaceae (le papyrus est produit à partir de l'un d'eux) et les juncaceae (la famille des roseaux et des plantes apparentées).
 Les poales sont des herbes, dont beaucoup ont une pollinisation anémophile (par le vent), souvent développé indépendamment au sein du clade, avec perte de nectaires septaux. Ils se caractérisent également par la présence de corps siliceux dans l'épiderme, par la perte des cristaux de raphides et par la présence de fleurs avec un périanthe clairement divisé en calice et corolle, aux styles bien développés et fortement ramifiés.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux caractères morphologiques et ADN soutiennent ce clade, des [[synap2omorphie]]s sont possibles : les vaisseaux également dans la tige et les feuilles, les corps siliceux (SiO2) dans l'épiderme, la perte de cristaux de raphides, des fleurs généralement petites, entourées de bractées et disposées en inflorescences (sauf chez trois espèces du genre Mayaca, qui possèdent des inflorescences réduites à une fleur), le périanthe constitué de calice + corolle, le micropyle bistomal, le style bien développé et fortement ramifié, les petits stigmates secs, le développement de l'endosperme nucléaire, le cotylédon unifacial (« hyperphyllaire ») et haustoriel, les graines contiennent généralement de l'amidon, et la perte du gène mitochondrial sdh3.
-Certains gènes mitochondriaux de Poales présentent une évolution accélérée (Graham et al. 2006[3], G. Petersen et al. 2006b[4]).
+Certains gènes mitochondriaux de Poales présentent une évolution accélérée (Graham et al. 2006, G. Petersen et al. 2006b).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pollinisation anémophile (vent), avec perte des nectaires septaux, s'est souvent développée indépendamment au sein des Poales et est caractéristique des Typhaceae, des Juncaceae, des Cyperaceae, des Restionaceae, et des Poaceae.
 </t>
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste actuelle des familles
-En classification phylogénétique APG IV (2016)[5] la circonscription est la suivante :
+          <t>Liste actuelle des familles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG IV (2016) la circonscription est la suivante :
 ordre Poales
 famille Bromeliaceae
 famille Cyperaceae
@@ -594,8 +615,43 @@
 famille Thurniaceae
 famille Typhaceae
 famille Xyridaceae
-Anciennes listes
-En classification phylogénétique APG III (2009)[1] la circonscription est la suivante :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Poales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anciennes listes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG III (2009) la circonscription est la suivante :
 ordre Poales
 famille Anarthriaceae
 famille Bromeliaceae
@@ -613,19 +669,89 @@
 famille Thurniaceae
 famille Typhaceae (incluant Sparganiaceae)
 famille Xyridaceae
-En classification phylogénétique APG II (2003)[6] la circonscription était la suivante :
+En classification phylogénétique APG II (2003) la circonscription était la suivante :
 ordre Poales
 L’argument * famille ''[[Anarthriaceae]]'' ↲ * famille ''[[Bromeliaceae]]'' ↲ * famille ''[[Centrolepidaceae]]'' ↲ * famille ''[[Cyperaceae]]'' ↲ * famille ''[[Ecdeiocoleaceae]]'' ↲ * famille ''[[Eriocaulaceae]]'' ↲ * famille ''[[Flagellariaceae]]'' ↲ * famille ''[[Hydatellaceae]]'' (désormais placée sous ''[[Nymphaeales]]'') ↲ * famille ''[[Joinvilleaceae]]'' ↲ * famille ''[[Juncaceae]]'' (famille des [[jonc]]s) ↲ * famille ''[[Mayacaceae]]'' ↲ * famille ''[[Poaceae]]'' ( (valeur ''Gramineae'') ↲ * famille ''[[Rapateaceae]]'' ↲ * famille ''[[Restionaceae]]'' ↲ * famille ''[[Sparganiaceae]]'' (famille du [[rubanier]]) ↲ * famille ''[[Thurniaceae]]'' ↲ * famille ''[[Typhaceae]]'' (famille de la [[Massette à larges feuilles|massette]]) ↲ * famille ''[[Xyridaceae]]'') n’existe pas dans le modèle appelé
-En classification phylogénétique APG (1998)[7], la circonscription était légèrement différente :
+En classification phylogénétique APG (1998), la circonscription était légèrement différente :
 ordre Poales (orthographié « commelinoïdes »)
 L’argument * famille ''[[Anarthriaceae]]'' ↲ * famille ''[[Centrolepidaceae]]'' ↲ * famille ''[[Cyperaceae]]'' ↲ * famille ''[[Ecdeiocoleaceae]]'' ↲ * famille ''[[Eriocaulaceae]]'' ↲ * famille ''[[Flagellariaceae]]'' ↲ * famille ''[[Hydatellaceae]]'' ↲ * famille ''[[Joinvilleaceae]]'' ↲ * famille ''[[Juncaceae]]'' ↲ * famille ''[[Poaceae]]'' ( (valeur ''Gramineae'') ↲ * famille ''[[Prionium serratum|Prioniaceae]]'' ↲ * famille ''[[Rapateaceae]]'' ↲ * famille ''[[Restionaceae]]'' ↲ * famille ''[[Sparganiaceae]]'' ↲ * famille ''[[Thurniaceae]]'' ↲ * famille ''[[Typhaceae]]'' ↲ * famille ''[[Xyridaceae]]'') n’existe pas dans le modèle appelé
 Le système Cronquist basé sur la morphologie n'incluait pas d'ordre nommé Poales, attribuant les familles aux ordres Bromeliales, Cyperales, Hydatellales, Juncales, Restionales et Typhales.
 Dans les premiers systèmes, un ordre comprenant la famille des graminées ne portait pas le nom de Poales mais un nom botanique descriptif tel que Graminales dans la classification d'Engler (mise à jour de 1964) et dans le classification d'Hutchinson (en) (première édition, premier volume, 1926), Glumiflorae dans la classification de Wettstein (dernière révision 1935) ou Glumaceae dans la classification Bentham &amp; Hooker (troisième volume, 1883).
-Évolution et phylogénie
-Les premiers fossiles attribués aux Poales datent de la fin du Crétacé, il y a environ 66 millions d'années, bien que certaines études (par exemple Bremer, 2002)[8] suggèrent que l'origine du groupe pourrait s'étendre à près de 115 millions d'années, probablement en Amérique du Sud. Les premiers fossiles connus comprennent le pollen et les fruits.
-La position phylogénétique des Poales au sein des commelinidées était difficile à résoudre, mais une analyse utilisant l'ADN chloroplastique complet a trouvé un soutien pour les Poales en tant que groupe frère des Commelinales et des Zingiberales[9]. Les principales lignées au sein des Poales ont été appelées clades broméliacées, cypéridés, xyrides, graminidés et restiidés. Une analyse phylogénétique a résolu la plupart des relations au sein de l'ordre mais a trouvé un faible support pour la monophylie du clade des cypéridés[10]. La relation entre les Centrolepidaceae et les Restoniacées au sein du clade des restiidés reste floue ; le premier peut en fait être intégré au second[10],[11].
-Diversité
-Les quatre familles les plus riches en espèces dans l'ordre sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Poales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Évolution et phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers fossiles attribués aux Poales datent de la fin du Crétacé, il y a environ 66 millions d'années, bien que certaines études (par exemple Bremer, 2002) suggèrent que l'origine du groupe pourrait s'étendre à près de 115 millions d'années, probablement en Amérique du Sud. Les premiers fossiles connus comprennent le pollen et les fruits.
+La position phylogénétique des Poales au sein des commelinidées était difficile à résoudre, mais une analyse utilisant l'ADN chloroplastique complet a trouvé un soutien pour les Poales en tant que groupe frère des Commelinales et des Zingiberales. Les principales lignées au sein des Poales ont été appelées clades broméliacées, cypéridés, xyrides, graminidés et restiidés. Une analyse phylogénétique a résolu la plupart des relations au sein de l'ordre mais a trouvé un faible support pour la monophylie du clade des cypéridés. La relation entre les Centrolepidaceae et les Restoniacées au sein du clade des restiidés reste floue ; le premier peut en fait être intégré au second,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Poales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Diversité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quatre familles les plus riches en espèces dans l'ordre sont :
 Poaceae : 12,070 espèces
 Cyperaceae : 5,500 espèces
 Bromeliaceae : 3,170 espèces
@@ -640,31 +766,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Poales</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Poales</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Poales constituent l’ordre de monocotylédones le plus important économiquement et peut-être l’ordre de plantes le plus important en général. Au sein de cet ordre, la famille de loin la plus importante sur le plan économique est la famille des graminées (Poaceae, syn. Gramineae), qui comprend les amidons de base, l'orge commune, le maïs, le millet, le riz et le blé, ainsi que les bambous (principalement utilisés à des fins structurelles, comme le bois, et un peu comme légumes), et quelques « assaisonnements » comme la canne à sucre et les citronnelles. Les graminoïdes, en particulier les graminées, sont généralement dominants dans les habitats ouverts (faible humidité mais pas encore arides, ni également le point culminant des incendies) comme les prairies/steppes et la savane et constituent ainsi une grande proportion du fourrage du bétail en pâturage. Peut-être en raison d'une nostalgie pastorale ou simplement d'un désir d'espaces de jeu ouverts, ils dominent la plupart des jardins occidentaux sous forme de pelouses, qui consomment d'énormes sommes d'argent en entretien (pâturage artificiel - tonte - pour l'esthétique et pour supprimer les fleurs allergènes, irrigation et engrais). De nombreuses Broméliacées sont utilisées comme plantes ornementales (dont une, l’ananas, est cultivée internationalement sous les tropiques pour ses fruits). De nombreuses espèces de carex, de joncs, de graminées et de quenouilles des zones humides sont des plantes d'habitat importantes pour la sauvagine, sont utilisées dans le tissage des sièges de chaises et (en particulier les quenouilles) étaient d'importantes sources de nourriture préagricoles pour l'homme. Deux carex, le souchet comestible (Cyperus esculentus, également une mauvaise herbe importante) et la châtaigne d'eau (Eleocharis dulcis) sont encore, au moins localement, des plantes-racines féculentes importantes dans les zones humides.
 </t>
